--- a/res/HDAnet_5HAM.xlsx
+++ b/res/HDAnet_5HAM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3562294641047797</v>
+        <v>0.3325098012383692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5804478318064283</v>
+        <v>0.5961328558633565</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5249154658769448</v>
+        <v>0.5336778052805281</v>
       </c>
       <c r="F2" t="n">
-        <v>30.16893148422241</v>
+        <v>101.1100323200226</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2244544077958983</v>
+        <v>0.2251598412724217</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7032186757110882</v>
+        <v>0.7047677773993339</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5368781098454233</v>
+        <v>0.3674869361936194</v>
       </c>
       <c r="F3" t="n">
-        <v>60.37325572967529</v>
+        <v>203.3998432159424</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1933316744315852</v>
+        <v>0.1885603882311475</v>
       </c>
       <c r="D4" t="n">
-        <v>0.745890921721209</v>
+        <v>0.7569440029266323</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4988780088149121</v>
+        <v>0.4448126948111478</v>
       </c>
       <c r="F4" t="n">
-        <v>90.56388974189758</v>
+        <v>305.9263117313385</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1746387826811715</v>
+        <v>0.1606008757200163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7700148338882555</v>
+        <v>0.7953349385659502</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5117118436173974</v>
+        <v>0.5045466057022369</v>
       </c>
       <c r="F5" t="n">
-        <v>120.762478351593</v>
+        <v>408.4993486404419</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1593000292778015</v>
+        <v>0.1544262972287326</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7924667024933271</v>
+        <v>0.8023113930517711</v>
       </c>
       <c r="E6" t="n">
-        <v>0.519806716003233</v>
+        <v>0.6609790406123945</v>
       </c>
       <c r="F6" t="n">
-        <v>150.9456162452698</v>
+        <v>511.0272500514984</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1423714463814728</v>
+        <v>0.1317958058713243</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8169608645144025</v>
+        <v>0.83218040417802</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4806994231789251</v>
+        <v>0.3445766868353502</v>
       </c>
       <c r="F7" t="n">
-        <v>181.101734161377</v>
+        <v>613.4958162307739</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1375170946933268</v>
+        <v>0.1261531787769671</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8209827293485514</v>
+        <v>0.8392483947673832</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5563687108506769</v>
+        <v>0.4738306747341401</v>
       </c>
       <c r="F8" t="n">
-        <v>211.2944316864014</v>
+        <v>715.9298498630524</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1211994189657372</v>
+        <v>0.1200394529737634</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8448279494870156</v>
+        <v>0.8463516594762337</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5322745125277834</v>
+        <v>0.5488598391089109</v>
       </c>
       <c r="F9" t="n">
-        <v>241.4831185340881</v>
+        <v>818.3957133293152</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.113770109999732</v>
+        <v>0.1097997068871594</v>
       </c>
       <c r="D10" t="n">
-        <v>0.852529613471751</v>
+        <v>0.8583701212281764</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5375361894448374</v>
+        <v>0.6226941235790245</v>
       </c>
       <c r="F10" t="n">
-        <v>271.6639618873596</v>
+        <v>920.8378853797913</v>
       </c>
     </row>
     <row r="11">
@@ -648,16 +648,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.104772171305051</v>
+        <v>0.1004958765058492</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8627821892551298</v>
+        <v>0.8696565464476739</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5235681292937967</v>
+        <v>0.6348373899889989</v>
       </c>
       <c r="F11" t="n">
-        <v>301.8292412757874</v>
+        <v>1023.265726089478</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09850831902319469</v>
+        <v>0.09529658327797778</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8712717610034477</v>
+        <v>0.8755683753405995</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4970324260582946</v>
+        <v>0.5185030482214888</v>
       </c>
       <c r="F12" t="n">
-        <v>332.0469517707825</v>
+        <v>1124.235193490982</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0968201948527744</v>
+        <v>0.09276063163696258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8735556562969193</v>
+        <v>0.8798798440811384</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5012257842493433</v>
+        <v>0.4831206453978731</v>
       </c>
       <c r="F13" t="n">
-        <v>362.2342991828918</v>
+        <v>1226.393572807312</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08691305636709977</v>
+        <v>0.0864518554399059</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8862155620933659</v>
+        <v>0.8881942079170451</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4866324004849464</v>
+        <v>0.4250366703337</v>
       </c>
       <c r="F14" t="n">
-        <v>392.4619643688202</v>
+        <v>1328.713701725006</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08295653033646316</v>
+        <v>0.07913879977097628</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8900950398466607</v>
+        <v>0.8962991346250883</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5009795223782583</v>
+        <v>0.5439271062522919</v>
       </c>
       <c r="F15" t="n">
-        <v>422.6852161884308</v>
+        <v>1431.247438907623</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07825141564539408</v>
+        <v>0.07545746420319789</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8962903440923372</v>
+        <v>0.9005979570340095</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4811068997524752</v>
+        <v>0.5118373556105611</v>
       </c>
       <c r="F16" t="n">
-        <v>452.8673641681671</v>
+        <v>1533.750718355179</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +768,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07609801465386591</v>
+        <v>0.07347487051253097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8983619077740088</v>
+        <v>0.9025859698254113</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5206897463502728</v>
+        <v>0.634511940777411</v>
       </c>
       <c r="F17" t="n">
-        <v>483.0867013931274</v>
+        <v>1636.17070889473</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07045590097962673</v>
+        <v>0.07358704799689779</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9057364398841962</v>
+        <v>0.9034027777777778</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4960448133461305</v>
+        <v>0.5136763155482215</v>
       </c>
       <c r="F18" t="n">
-        <v>513.3005576133728</v>
+        <v>1738.660073041916</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0675319814064847</v>
+        <v>0.06627441012891827</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9094350827865206</v>
+        <v>0.9114152538096679</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5329604149828248</v>
+        <v>0.6477945659149248</v>
       </c>
       <c r="F19" t="n">
-        <v>543.5058636665344</v>
+        <v>1841.232888936996</v>
       </c>
     </row>
     <row r="20">
@@ -828,16 +828,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06597984852193162</v>
+        <v>0.06306448960499153</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9106697015062837</v>
+        <v>0.9154487082450298</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5663594839235199</v>
+        <v>0.4799111890355702</v>
       </c>
       <c r="F20" t="n">
-        <v>573.7201995849609</v>
+        <v>1943.762318372726</v>
       </c>
     </row>
     <row r="21">
@@ -848,16 +848,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06204254978034412</v>
+        <v>0.06038780705318139</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9154919098940666</v>
+        <v>0.9180600968816228</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5368418020054556</v>
+        <v>0.6439115213604694</v>
       </c>
       <c r="F21" t="n">
-        <v>603.9607682228088</v>
+        <v>2046.230601787567</v>
       </c>
     </row>
     <row r="22">
@@ -868,16 +868,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06071808942332255</v>
+        <v>0.05727267253139039</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9170336763366791</v>
+        <v>0.9221274693460491</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5517151902530815</v>
+        <v>0.6509023193986065</v>
       </c>
       <c r="F22" t="n">
-        <v>634.3538494110107</v>
+        <v>2147.216474294662</v>
       </c>
     </row>
     <row r="23">
@@ -888,16 +888,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05817385062534738</v>
+        <v>0.05527957693270182</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9197081314644386</v>
+        <v>0.9244818000050459</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5189124381188119</v>
+        <v>0.6212230129262927</v>
       </c>
       <c r="F23" t="n">
-        <v>664.5563821792603</v>
+        <v>2251.95797085762</v>
       </c>
     </row>
     <row r="24">
@@ -908,556 +908,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05852315585035069</v>
+        <v>0.05255746370440283</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9202645923406829</v>
+        <v>0.9280460629225956</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5447016600575874</v>
+        <v>0.5756785730656399</v>
       </c>
       <c r="F24" t="n">
-        <v>694.6876621246338</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.05342709620252292</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9251684207828227</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5352961535790058</v>
-      </c>
-      <c r="F25" t="n">
-        <v>724.7970621585846</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.05090925584696944</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9282931709809265</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5330604588679532</v>
-      </c>
-      <c r="F26" t="n">
-        <v>754.9181780815125</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.04931698536515561</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.9299238343157427</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.462114544920691</v>
-      </c>
-      <c r="F27" t="n">
-        <v>785.0684666633606</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.04741696010493453</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.9324413486869544</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.5294048118938169</v>
-      </c>
-      <c r="F28" t="n">
-        <v>815.1901302337646</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.04638509559939927</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.9335707790864983</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5217760216710446</v>
-      </c>
-      <c r="F29" t="n">
-        <v>845.3246393203735</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.04606393722649816</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.9338521320483234</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.52234471294706</v>
-      </c>
-      <c r="F30" t="n">
-        <v>875.4711105823517</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.04635663626954081</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.9332218710031697</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5266904062057991</v>
-      </c>
-      <c r="F31" t="n">
-        <v>905.5685744285583</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.04469476366156778</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.9353013088750487</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5151895032456052</v>
-      </c>
-      <c r="F32" t="n">
-        <v>935.793744802475</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.04260919655213889</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.937821592789023</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5328593844716104</v>
-      </c>
-      <c r="F33" t="n">
-        <v>966.1051249504089</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.04220313647868523</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.9379791852026914</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5827106407228733</v>
-      </c>
-      <c r="F34" t="n">
-        <v>996.3433587551117</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0404592136717947</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.9402730182672524</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5621907913846231</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1026.613635778427</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.06089213760493561</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.9193116524113051</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5984838319610022</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1056.871921062469</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.04677079967159666</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.9324282069350219</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5622549220802182</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1087.135689973831</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.04449387798111185</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9359798468518878</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5664494642225703</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1117.387941360474</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.04103285589887271</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.9393080769859034</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5959866813371388</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1147.645188093185</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.03854838588176047</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.9424822445156537</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.5796307887325722</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1177.887526273727</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.03721529247406718</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.943997293016321</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5985157986461912</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1208.133351564407</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.0370457961099674</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.9442476922649169</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.579987552725298</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1238.339591503143</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.03905538678656482</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.9420381401879553</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5631156546777126</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1268.617118120193</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.03687231811093374</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.9444152224496747</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.587569379546373</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1298.857635498047</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.03615462477509267</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.9452124163272257</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.5811083599590826</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1329.109620809555</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.03676813369875708</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.9441918669715843</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5830747057486361</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1359.34721159935</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.03491821219225996</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.9467973007493188</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5953321535916347</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1389.624901294708</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.03432859748358297</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.947394110062281</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.5887182069610022</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1419.791877746582</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.03338006244368384</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.9485327722710337</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5856928167306527</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1449.970318555832</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.03338727261617333</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.9484024951516711</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.6040154497752072</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1480.101536989212</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.03301481945232085</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9489191506387977</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5961692071630632</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1510.280654668808</v>
+        <v>2360.622200965881</v>
       </c>
     </row>
   </sheetData>
